--- a/SchedulingData/static5/pso/scheduling1_2.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_2.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84.52</v>
+        <v>70.5</v>
       </c>
       <c r="E2" t="n">
-        <v>25.688</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84.52</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.54</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>22.916</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>128.54</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>181.14</v>
+        <v>55.28</v>
       </c>
       <c r="E4" t="n">
-        <v>19.796</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.64</v>
+        <v>38.74</v>
       </c>
       <c r="E5" t="n">
-        <v>25.736</v>
+        <v>27.316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>67.45999999999999</v>
+        <v>119.3</v>
       </c>
       <c r="E6" t="n">
-        <v>25.424</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>62.36</v>
+        <v>78.92</v>
       </c>
       <c r="E7" t="n">
-        <v>27.404</v>
+        <v>26.248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.36</v>
+        <v>119.3</v>
       </c>
       <c r="D8" t="n">
-        <v>119.76</v>
+        <v>173.6</v>
       </c>
       <c r="E8" t="n">
-        <v>24.284</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67.45999999999999</v>
+        <v>38.74</v>
       </c>
       <c r="D9" t="n">
-        <v>122.86</v>
+        <v>106.04</v>
       </c>
       <c r="E9" t="n">
-        <v>22.004</v>
+        <v>22.216</v>
       </c>
     </row>
     <row r="10">
@@ -622,89 +622,89 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>173.6</v>
       </c>
       <c r="D10" t="n">
-        <v>77.5</v>
+        <v>220.9</v>
       </c>
       <c r="E10" t="n">
-        <v>26.4</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.5</v>
+        <v>106.04</v>
       </c>
       <c r="D11" t="n">
-        <v>133.8</v>
+        <v>156.16</v>
       </c>
       <c r="E11" t="n">
-        <v>22.88</v>
+        <v>18.344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>78.92</v>
       </c>
       <c r="D12" t="n">
-        <v>75.2</v>
+        <v>154.52</v>
       </c>
       <c r="E12" t="n">
-        <v>24.66</v>
+        <v>22.768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>122.86</v>
+        <v>154.52</v>
       </c>
       <c r="D13" t="n">
-        <v>196.76</v>
+        <v>195.4</v>
       </c>
       <c r="E13" t="n">
-        <v>18.704</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.64</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>104.76</v>
+        <v>89.52</v>
       </c>
       <c r="E14" t="n">
-        <v>21.864</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="15">
@@ -713,150 +713,150 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>133.8</v>
+        <v>220.9</v>
       </c>
       <c r="D15" t="n">
-        <v>193.36</v>
+        <v>291.3</v>
       </c>
       <c r="E15" t="n">
-        <v>20.024</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75.2</v>
+        <v>156.16</v>
       </c>
       <c r="D16" t="n">
-        <v>147.4</v>
+        <v>215.2</v>
       </c>
       <c r="E16" t="n">
-        <v>19.56</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>196.76</v>
+        <v>215.2</v>
       </c>
       <c r="D17" t="n">
-        <v>241.86</v>
+        <v>276.12</v>
       </c>
       <c r="E17" t="n">
-        <v>15.324</v>
+        <v>9.608000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>241.86</v>
+        <v>276.12</v>
       </c>
       <c r="D18" t="n">
-        <v>287.46</v>
+        <v>351.82</v>
       </c>
       <c r="E18" t="n">
-        <v>12.404</v>
+        <v>6.128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>193.36</v>
+        <v>89.52</v>
       </c>
       <c r="D19" t="n">
-        <v>254.46</v>
+        <v>126.88</v>
       </c>
       <c r="E19" t="n">
-        <v>16.544</v>
+        <v>23.092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>147.4</v>
+        <v>291.3</v>
       </c>
       <c r="D20" t="n">
-        <v>208.32</v>
+        <v>334.28</v>
       </c>
       <c r="E20" t="n">
-        <v>15.088</v>
+        <v>8.872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>254.46</v>
+        <v>195.4</v>
       </c>
       <c r="D21" t="n">
-        <v>314.16</v>
+        <v>242.36</v>
       </c>
       <c r="E21" t="n">
-        <v>13.184</v>
+        <v>15.764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>287.46</v>
+        <v>70.5</v>
       </c>
       <c r="D22" t="n">
-        <v>336.26</v>
+        <v>120.38</v>
       </c>
       <c r="E22" t="n">
-        <v>10.164</v>
+        <v>23.232</v>
       </c>
     </row>
     <row r="23">
@@ -865,155 +865,155 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>119.76</v>
+        <v>55.28</v>
       </c>
       <c r="D23" t="n">
-        <v>179.34</v>
+        <v>101</v>
       </c>
       <c r="E23" t="n">
-        <v>20.436</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>104.76</v>
+        <v>120.38</v>
       </c>
       <c r="D24" t="n">
-        <v>190.06</v>
+        <v>189.24</v>
       </c>
       <c r="E24" t="n">
-        <v>17.444</v>
+        <v>19.956</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>190.06</v>
+        <v>126.88</v>
       </c>
       <c r="D25" t="n">
-        <v>257.88</v>
+        <v>208.74</v>
       </c>
       <c r="E25" t="n">
-        <v>14.272</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>179.34</v>
+        <v>242.36</v>
       </c>
       <c r="D26" t="n">
-        <v>235.02</v>
+        <v>321.86</v>
       </c>
       <c r="E26" t="n">
-        <v>17.468</v>
+        <v>12.384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>235.02</v>
+        <v>321.86</v>
       </c>
       <c r="D27" t="n">
-        <v>284.2</v>
+        <v>361.72</v>
       </c>
       <c r="E27" t="n">
-        <v>15.18</v>
+        <v>9.528</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>208.32</v>
+        <v>101</v>
       </c>
       <c r="D28" t="n">
-        <v>264</v>
+        <v>180.8</v>
       </c>
       <c r="E28" t="n">
-        <v>12.14</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>181.14</v>
+        <v>180.8</v>
       </c>
       <c r="D29" t="n">
-        <v>249.12</v>
+        <v>264.2</v>
       </c>
       <c r="E29" t="n">
-        <v>16.628</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>257.88</v>
+        <v>208.74</v>
       </c>
       <c r="D30" t="n">
-        <v>309.08</v>
+        <v>271.56</v>
       </c>
       <c r="E30" t="n">
-        <v>10.792</v>
+        <v>15.344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,108 +1021,108 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>314.16</v>
+        <v>189.24</v>
       </c>
       <c r="D31" t="n">
-        <v>359.26</v>
+        <v>234.34</v>
       </c>
       <c r="E31" t="n">
-        <v>9.804</v>
+        <v>16.576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>284.2</v>
+        <v>334.28</v>
       </c>
       <c r="D32" t="n">
-        <v>367.92</v>
+        <v>393.56</v>
       </c>
       <c r="E32" t="n">
-        <v>11.428</v>
+        <v>6.584</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>367.92</v>
+        <v>271.56</v>
       </c>
       <c r="D33" t="n">
-        <v>452.4</v>
+        <v>327.34</v>
       </c>
       <c r="E33" t="n">
-        <v>7.58</v>
+        <v>12.376</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>264</v>
+        <v>264.2</v>
       </c>
       <c r="D34" t="n">
-        <v>306.12</v>
+        <v>326.6</v>
       </c>
       <c r="E34" t="n">
-        <v>9.548</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>359.26</v>
+        <v>351.82</v>
       </c>
       <c r="D35" t="n">
-        <v>419.68</v>
+        <v>410.74</v>
       </c>
       <c r="E35" t="n">
-        <v>6.372</v>
+        <v>3.356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>309.08</v>
+        <v>234.34</v>
       </c>
       <c r="D36" t="n">
-        <v>382.84</v>
+        <v>279.24</v>
       </c>
       <c r="E36" t="n">
-        <v>7.516</v>
+        <v>13.216</v>
       </c>
     </row>
     <row r="37">
@@ -1131,93 +1131,93 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>382.84</v>
+        <v>361.72</v>
       </c>
       <c r="D37" t="n">
-        <v>448.26</v>
+        <v>431.82</v>
       </c>
       <c r="E37" t="n">
-        <v>4.604</v>
+        <v>6.108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>419.68</v>
+        <v>327.34</v>
       </c>
       <c r="D38" t="n">
-        <v>497.08</v>
+        <v>369.56</v>
       </c>
       <c r="E38" t="n">
-        <v>3.732</v>
+        <v>9.784000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>336.26</v>
+        <v>279.24</v>
       </c>
       <c r="D39" t="n">
-        <v>389.96</v>
+        <v>334.66</v>
       </c>
       <c r="E39" t="n">
-        <v>6.424</v>
+        <v>10.304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>249.12</v>
+        <v>369.56</v>
       </c>
       <c r="D40" t="n">
-        <v>322.06</v>
+        <v>421.96</v>
       </c>
       <c r="E40" t="n">
-        <v>13.944</v>
+        <v>7.144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>322.06</v>
+        <v>326.6</v>
       </c>
       <c r="D41" t="n">
-        <v>393.92</v>
+        <v>375.1</v>
       </c>
       <c r="E41" t="n">
-        <v>9.888</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
   </sheetData>
